--- a/src/test/resources/testdata/OpencartTestData.xlsx
+++ b/src/test/resources/testdata/OpencartTestData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB591922-920B-874C-9321-BEB88F0283D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">firstname </t>
   </si>
@@ -102,25 +101,22 @@
     <t>product name</t>
   </si>
   <si>
-    <t>MacBook</t>
-  </si>
-  <si>
-    <t>MacBook pro</t>
-  </si>
-  <si>
     <t>MacBook Air</t>
   </si>
   <si>
     <t>iMac</t>
   </si>
   <si>
-    <t xml:space="preserve">imac </t>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>MacBook Pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,23 +489,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D8E587-1D3C-0A44-BFEE-5FD570B47106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.43359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,24 +595,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{88FCFF0E-3A99-0D4D-BA85-5CD2058FCE0C}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F4570B69-5AD9-024C-8B21-FCC612525363}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{0E14AE1B-C972-9646-8668-02894D7E2FF1}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{9097121E-051C-E749-825F-384EF16B58B6}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8810-AB73-E14D-B0BC-AEB224BCE466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -628,26 +628,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
